--- a/RegressionTests/Unit_Test_3/expected_aptrans_601597_pass.xlsx
+++ b/RegressionTests/Unit_Test_3/expected_aptrans_601597_pass.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="53">
   <si>
     <t>Forename</t>
   </si>
@@ -81,9 +81,17 @@
     <t>SURNAME</t>
   </si>
   <si>
+    <t>Refno 0712727 does not exist for Scheme ID 601597
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>712727</t>
   </si>
   <si>
+    <t>Refno 0712753 does not exist for Scheme ID 601597
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>712753</t>
   </si>
   <si>
@@ -99,6 +107,81 @@
     <t>100</t>
   </si>
   <si>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>559024</t>
+  </si>
+  <si>
+    <t>159701</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>30/12/2011</t>
+  </si>
+  <si>
+    <t>1,406.45</t>
+  </si>
+  <si>
+    <t>01/11/2011</t>
+  </si>
+  <si>
+    <t>ILIM Nov 2011</t>
+  </si>
+  <si>
+    <t>555355</t>
+  </si>
+  <si>
+    <t>30/11/2011</t>
+  </si>
+  <si>
+    <t>01/10/2011</t>
+  </si>
+  <si>
+    <t>ILIM Oct 2011</t>
+  </si>
+  <si>
+    <t>551891</t>
+  </si>
+  <si>
+    <t>25/10/2011</t>
+  </si>
+  <si>
+    <t>16,000.00</t>
+  </si>
+  <si>
+    <t>ILIM SPAV S O'Dwod 16K</t>
+  </si>
+  <si>
     <t>1_Errors_found</t>
   </si>
   <si>
@@ -108,10 +191,10 @@
     <t>Error Description</t>
   </si>
   <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
+    <t>schemeActive</t>
+  </si>
+  <si>
+    <t>Scheme 601597 is not active. Its current status is PUPD</t>
   </si>
 </sst>
 </file>
@@ -121,7 +204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +222,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -286,10 +376,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1039,7 +1129,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="47.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -1062,10 +1152,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1080,10 +1172,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="24"/>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1117,24 +1211,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1375,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="47.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -1304,10 +1398,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1322,10 +1418,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="24"/>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1359,24 +1457,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1525,7 +1623,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="47.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -1548,10 +1646,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1566,10 +1666,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="24"/>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1603,24 +1705,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1631,13 +1733,24 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.75"/>
+    <col min="2" max="2" width="14.125"/>
+    <col min="3" max="3" width="8.25"/>
+    <col min="4" max="4" width="15.75"/>
+    <col min="5" max="5" width="13.25"/>
+    <col min="6" max="6" width="12.625"/>
+    <col min="7" max="7" width="15.75"/>
+    <col min="8" max="8" width="10.5"/>
+    <col min="9" max="9" width="22.875"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
@@ -1657,22 +1770,138 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +1923,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="47.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -1717,10 +1946,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1735,10 +1966,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="24"/>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1772,24 +2005,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1936,7 +2169,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="47.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -1959,10 +2192,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1977,10 +2212,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="24"/>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2014,24 +2251,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +2415,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="47.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -2201,10 +2438,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2219,10 +2458,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="24"/>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2256,24 +2497,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_3/expected_aptrans_601597_pass.xlsx
+++ b/RegressionTests/Unit_Test_3/expected_aptrans_601597_pass.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="26">
   <si>
     <t>Forename</t>
   </si>
@@ -81,17 +81,9 @@
     <t>SURNAME</t>
   </si>
   <si>
-    <t>Refno 0712727 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>712727</t>
   </si>
   <si>
-    <t>Refno 0712753 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>712753</t>
   </si>
   <si>
@@ -107,81 +99,6 @@
     <t>100</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>559024</t>
-  </si>
-  <si>
-    <t>159701</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>30/12/2011</t>
-  </si>
-  <si>
-    <t>1,406.45</t>
-  </si>
-  <si>
-    <t>01/11/2011</t>
-  </si>
-  <si>
-    <t>ILIM Nov 2011</t>
-  </si>
-  <si>
-    <t>555355</t>
-  </si>
-  <si>
-    <t>30/11/2011</t>
-  </si>
-  <si>
-    <t>01/10/2011</t>
-  </si>
-  <si>
-    <t>ILIM Oct 2011</t>
-  </si>
-  <si>
-    <t>551891</t>
-  </si>
-  <si>
-    <t>25/10/2011</t>
-  </si>
-  <si>
-    <t>16,000.00</t>
-  </si>
-  <si>
-    <t>ILIM SPAV S O'Dwod 16K</t>
-  </si>
-  <si>
     <t>1_Errors_found</t>
   </si>
   <si>
@@ -191,10 +108,10 @@
     <t>Error Description</t>
   </si>
   <si>
-    <t>schemeActive</t>
-  </si>
-  <si>
-    <t>Scheme 601597 is not active. Its current status is PUPD</t>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
   </si>
 </sst>
 </file>
@@ -204,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,13 +139,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -376,10 +286,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1129,7 +1039,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="47.25"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -1152,12 +1062,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="24"/>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1172,12 +1080,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="24"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1211,24 +1117,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +1281,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="47.25"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -1398,12 +1304,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="24"/>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1418,12 +1322,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="24"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1457,24 +1359,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1623,7 +1525,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="47.25"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -1646,12 +1548,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="24"/>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1666,12 +1566,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="24"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1705,24 +1603,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1733,24 +1631,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.75"/>
-    <col min="2" max="2" width="14.125"/>
-    <col min="3" max="3" width="8.25"/>
-    <col min="4" max="4" width="15.75"/>
-    <col min="5" max="5" width="13.25"/>
-    <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="15.75"/>
-    <col min="8" max="8" width="10.5"/>
-    <col min="9" max="9" width="22.875"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
@@ -1770,138 +1657,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1923,7 +1694,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="47.25"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -1946,12 +1717,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="24"/>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1966,12 +1735,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="24"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2005,24 +1772,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2169,7 +1936,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="47.25"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -2192,12 +1959,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="24"/>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2212,12 +1977,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="24"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2251,24 +2014,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2178,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="47.25"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -2438,12 +2201,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="24"/>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2458,12 +2219,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="24"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2497,24 +2256,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_3/expected_aptrans_601597_pass.xlsx
+++ b/RegressionTests/Unit_Test_3/expected_aptrans_601597_pass.xlsx
@@ -290,10 +290,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
     </border>
   </borders>
@@ -322,7 +322,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -373,11 +373,14 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1173,7 +1176,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -1210,16 +1213,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1419,7 +1422,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -1456,16 +1459,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1667,7 +1670,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -1704,16 +1707,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1967,7 +1970,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -2004,16 +2007,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2213,7 +2216,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -2250,16 +2253,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2459,7 +2462,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -2496,16 +2499,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>

--- a/RegressionTests/Unit_Test_3/expected_aptrans_601597_pass.xlsx
+++ b/RegressionTests/Unit_Test_3/expected_aptrans_601597_pass.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="26">
   <si>
     <t>Forename</t>
   </si>
@@ -81,17 +81,9 @@
     <t>SURNAME</t>
   </si>
   <si>
-    <t>Refno 0712727 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>712727</t>
   </si>
   <si>
-    <t>Refno 0712753 does not exist for Scheme ID 601597
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>712753</t>
   </si>
   <si>
@@ -107,81 +99,6 @@
     <t>100</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>559024</t>
-  </si>
-  <si>
-    <t>159701</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>30/12/2011</t>
-  </si>
-  <si>
-    <t>1,406.45</t>
-  </si>
-  <si>
-    <t>01/11/2011</t>
-  </si>
-  <si>
-    <t>ILIM Nov 2011</t>
-  </si>
-  <si>
-    <t>555355</t>
-  </si>
-  <si>
-    <t>30/11/2011</t>
-  </si>
-  <si>
-    <t>01/10/2011</t>
-  </si>
-  <si>
-    <t>ILIM Oct 2011</t>
-  </si>
-  <si>
-    <t>551891</t>
-  </si>
-  <si>
-    <t>25/10/2011</t>
-  </si>
-  <si>
-    <t>16,000.00</t>
-  </si>
-  <si>
-    <t>ILIM SPAV S O'Dwod 16K</t>
-  </si>
-  <si>
     <t>1_Errors_found</t>
   </si>
   <si>
@@ -191,10 +108,10 @@
     <t>Error Description</t>
   </si>
   <si>
-    <t>schemeActive</t>
-  </si>
-  <si>
-    <t>Scheme 601597 is not active. Its current status is PUPD</t>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
   </si>
 </sst>
 </file>
@@ -204,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,13 +139,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -376,13 +286,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1132,10 +1042,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="47.25"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
@@ -1155,12 +1065,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="24"/>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1175,12 +1083,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="25" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="25"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1214,24 +1120,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="26" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="27" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1378,10 +1284,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="47.25"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
@@ -1401,12 +1307,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="24"/>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1421,12 +1325,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="25" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="25"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1460,24 +1362,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="26" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="27" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1626,10 +1528,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="47.25"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
@@ -1649,12 +1551,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="24"/>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1669,12 +1569,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="25" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="25"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1708,24 +1606,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="26" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="27" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1736,24 +1634,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.75"/>
-    <col min="2" max="2" width="14.125"/>
-    <col min="3" max="3" width="8.25"/>
-    <col min="4" max="4" width="15.75"/>
-    <col min="5" max="5" width="13.25"/>
-    <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="15.75"/>
-    <col min="8" max="8" width="10.5"/>
-    <col min="9" max="9" width="22.875"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
@@ -1773,138 +1660,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1926,10 +1697,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="47.25"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
@@ -1949,12 +1720,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="24"/>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1969,12 +1738,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="25" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="25"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2008,24 +1775,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="26" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="27" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2172,10 +1939,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="47.25"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
@@ -2195,12 +1962,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="24"/>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2215,12 +1980,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="25" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="25"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2254,24 +2017,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="26" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="27" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2181,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="47.25"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
@@ -2441,12 +2204,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="24"/>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2461,12 +2222,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="25" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="25"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2500,24 +2259,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="26" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="27" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
